--- a/data/long_bre/P18_6-Estudios-long_bre.xlsx
+++ b/data/long_bre/P18_6-Estudios-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +615,47 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>6,26</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>21,51</t>
+          <t>20,82</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>5,98</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>134,99%</t>
+          <t>25,04%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>18,8%</t>
+          <t>112,08%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>22,94%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3,37%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,24; 13,33</t>
+          <t>-6,57; 19,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,16; 31,91</t>
+          <t>9,34; 31,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 14,17</t>
+          <t>-2,59; 14,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-25,91; 75,93</t>
+          <t>-13,22; 17,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>63,95; 285,85</t>
+          <t>-21,49; 112,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,79; 66,08</t>
+          <t>39,11; 255,91</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-8,61; 68,8</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-28,64; 68,54</t>
         </is>
       </c>
     </row>
@@ -675,37 +711,47 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-8,51</t>
+          <t>-8,77</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-19,73</t>
+          <t>-17,78</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,72</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-17,68%</t>
+          <t>-8,85</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-33,68%</t>
+          <t>-18,26%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>-33,72%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3,94%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-19,15%</t>
         </is>
       </c>
     </row>
@@ -718,32 +764,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-23,13; 4,36</t>
+          <t>-26,33; 6,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-33,02; -6,85</t>
+          <t>-35,43; -5,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 14,77</t>
+          <t>-8,05; 12,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-40,71; 10,69</t>
+          <t>-30,29; 5,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-50,44; -12,3</t>
+          <t>-43,19; 18,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-14,27; 42,44</t>
+          <t>-54,6; -11,18</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-16,48; 35,73</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-50,72; 16,32</t>
         </is>
       </c>
     </row>
@@ -751,37 +807,47 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,76</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,78</t>
+          <t>-3,05</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-8,65</t>
+          <t>-7,59</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>20,89%</t>
+          <t>7,64</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-6,98%</t>
+          <t>9,31%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-26,72%</t>
+          <t>-10,61%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-22,98%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>42,7%</t>
         </is>
       </c>
     </row>
@@ -794,74 +860,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 17,21</t>
+          <t>-11,53; 14,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,96; 9,43</t>
+          <t>-15,41; 10,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-22,62; 0,15</t>
+          <t>-20,43; 1,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-24,07; 83,59</t>
+          <t>-4,26; 18,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-37,17; 49,91</t>
+          <t>-34,63; 75,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-53,98; 0,94</t>
+          <t>-42,48; 45,22</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-48,44; 5,76</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-16,73; 153,8</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,32</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,3</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-7,31%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +956,94 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 8,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 13,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 3,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-22,41; 39,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 50,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-25,48; 13,79</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-6,47</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-7,03</t>
+          <t>5,55</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-5,15</t>
+          <t>-1,9</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-15,47%</t>
+          <t>-4,71</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-15,39%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-9,89%</t>
+          <t>18,59%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-5,99%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-13,83%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1056,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,24; 0,68</t>
+          <t>-8,57; 9,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,42; 1,16</t>
+          <t>-2,61; 12,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,87; 2,08</t>
+          <t>-9,36; 4,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-29,59; 1,26</t>
+          <t>-14,67; 3,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-28,89; 2,9</t>
+          <t>-29,45; 48,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-21,55; 4,3</t>
+          <t>-7,72; 49,17</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-25,87; 16,53</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-34,71; 12,22</t>
         </is>
       </c>
     </row>
@@ -983,37 +1099,47 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,59</t>
+          <t>-6,91</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>-8,01</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>7,45</t>
+          <t>-5,1</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>16,5%</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>-16,41%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>45,31%</t>
+          <t>-17,18%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-9,88%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-0,58%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1152,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 12,1</t>
+          <t>-15,52; 1,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 7,14</t>
+          <t>-16,29; 1,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,1; 12,31</t>
+          <t>-12,14; 2,86</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 40,96</t>
+          <t>-9,32; 7,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-23,88; 34,01</t>
+          <t>-32,88; 5,42</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>10,58; 88,85</t>
+          <t>-31,73; 2,96</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-21,78; 5,83</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-20,3; 23,41</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,52</t>
+          <t>5,8</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>7,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>24,54%</t>
+          <t>4,94</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>17,06%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-4,18%</t>
+          <t>10,43%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>42,04%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>18,56%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1248,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 10,81</t>
+          <t>-5,36; 14,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,77; 8,34</t>
+          <t>-6,4; 10,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 6,2</t>
+          <t>1,67; 11,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,9; 72,27</t>
+          <t>-2,6; 13,11</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-19,38; 24,95</t>
+          <t>-13,51; 52,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-24,33; 27,52</t>
+          <t>-21,52; 52,46</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>9,04; 81,99</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-8,78; 58,32</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1291,47 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-7,44</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>5,92</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-3,18</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-15,34%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>15,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-6,42%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1344,94 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-15,79; 0,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 13,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-10,57; 3,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-29,17; 2,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 42,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-19,51; 8,24</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>5,92</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-6,2</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4,3</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>8,82%</t>
+          <t>-6,37</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-26,8%</t>
+          <t>36,36%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>18,15%</t>
+          <t>7,99%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-4,05%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-19,36%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1444,90 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 11,06</t>
+          <t>-0,62; 13,07</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-13,11; 0,65</t>
+          <t>-6,26; 11,18</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 10,45</t>
+          <t>-7,34; 5,21</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-12,64; 39,29</t>
+          <t>-14,78; 1,12</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-47,21; 3,94</t>
+          <t>-5,23; 100,28</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 51,28</t>
+          <t>-15,31; 34,83</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-23,26; 22,99</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-38,82; 4,09</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>-8,5</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>7,24</t>
+          <t>4,42</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>-3,26</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>10,6%</t>
+          <t>4,64</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>24,04%</t>
+          <t>-16,93%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-1,28%</t>
+          <t>11,27%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-6,52%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>11,66%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1540,42 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 6,74</t>
+          <t>-17,57; 2,49</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>2,46; 11,69</t>
+          <t>-4,39; 13,09</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 3,77</t>
+          <t>-10,67; 3,56</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-9,48; 33,44</t>
+          <t>-3,46; 13,37</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>7,42; 42,6</t>
+          <t>-32,38; 5,27</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-12,95; 13,85</t>
+          <t>-9,94; 38,94</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-19,71; 7,88</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-7,64; 38,48</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1583,47 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-7,07</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-5,26</t>
+          <t>-7,42</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-2,73</t>
+          <t>4,34</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-15,69%</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-11,53%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-5,57%</t>
+          <t>-32,01%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>18,61%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>6,32%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1636,42 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-11,83; -1,4</t>
+          <t>-7,32; 11,47</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-10,58; 0,13</t>
+          <t>-15,11; -0,26</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 2,25</t>
+          <t>-2,21; 10,05</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-24,93; -3,43</t>
+          <t>-5,95; 9,33</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-21,54; 0,27</t>
+          <t>-19,07; 42,47</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-14,46; 4,97</t>
+          <t>-54,18; -1,0</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-8,39; 49,62</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-19,02; 40,71</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1679,47 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>4,68</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-1,98</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>3,1</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>14,46%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-8,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>14,06%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,44 +1732,838 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 9,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 2,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 6,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 33,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-24,72; 11,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 33,85</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>-0,67</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>6,64</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>-2,8%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>23,36%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>-7,67; 5,71</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>-3,39; 16,77</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>-27,41; 27,86</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-10,98; 75,11</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>-6,13</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>-3,5</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>-13,71%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-7,71%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-13,97; 1,49</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-15,79; 7,56</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-27,9; 4,1</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-30,8; 19,01</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>6,8</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-3,14</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>21,56%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-11,96%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-0,35; 14,2</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-13,02; 6,29</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-1,03; 52,81</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-42,93; 29,54</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>1,94</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>7,2</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>-3,82</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>8,65%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>23,8%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>0,06%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>-11,21%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>-2,27; 6,25</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>2,42; 12,06</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>-4,15; 4,1</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>-10,36; 1,67</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>-9,16; 32,12</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>7,06; 43,45</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>-12,87; 15,52</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>-26,99; 5,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>-7,04</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>-5,1</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>-3,24</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>-0,28</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>-15,51%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>-11,31%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>-6,63%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>-0,68%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>-12,66; -2,35</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>-10,29; 0,14</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>-7,96; 1,32</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>-6,49; 5,79</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>-25,74; -5,43</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>-21,12; 0,57</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>-15,61; 2,6</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>-14,76; 15,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>5,1</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>-2,1</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>3,22</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>4,09</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>15,83%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>-8,51%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>14,55%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>16,28%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>0,4; 9,78</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>-6,79; 2,43</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>-0,99; 6,85</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>-1,27; 9,11</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>0,62; 33,25</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>-25,35; 11,17</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>-4,12; 33,55</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>-4,61; 40,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="8">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
